--- a/excel_files/report1.xlsx
+++ b/excel_files/report1.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="81">
   <si>
-    <t xml:space="preserve">                                               Ежемесячный отчет о посещаемости</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                     С: 01.04.2022 до: 31.03.2022</t>
+    <t xml:space="preserve">                                                                      Ежемесячный отчет о посещаемости</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                С: 01.04.2022 до: 31.03.2022</t>
   </si>
   <si>
     <t>ФИО сотрудника:</t>
@@ -615,6 +615,12 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="9" width="18.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
